--- a/Input/Runfiles/RiskDriverSimulation/InflationInput.xlsx
+++ b/Input/Runfiles/RiskDriverSimulation/InflationInput.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JQ228YH\Documents\CVA Tool Python\CVA-Tool\Risk Driver Simulation\Runfiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JQ228YH\Documents\CVA Tool Python\CVA-Tool\Input\Runfiles\RiskDriverSimulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48AF075-495D-49A7-B85F-44440E2C17D9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB48F208-B7AF-4467-9D10-7DD4033EC5F4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-6465" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>Inflation1</t>
   </si>
@@ -123,32 +124,131 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Real Interest Rate</t>
-  </si>
-  <si>
     <t>Starting Inflation Index</t>
   </si>
   <si>
-    <t>Volatility real IR</t>
-  </si>
-  <si>
-    <t>Volatility Index</t>
-  </si>
-  <si>
-    <t>Mean reversion real</t>
-  </si>
-  <si>
-    <t>Nominal Interest Rate Reference</t>
+    <t>Volatility Inflation Index</t>
+  </si>
+  <si>
+    <t>Mean reversion Real IR</t>
+  </si>
+  <si>
+    <t>Volatility Real IR</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>ZC Inflation</t>
+  </si>
+  <si>
+    <t>domestic</t>
+  </si>
+  <si>
+    <t>foreign1</t>
+  </si>
+  <si>
+    <t>foreign2</t>
+  </si>
+  <si>
+    <t>foreign3</t>
+  </si>
+  <si>
+    <t>foreign4</t>
+  </si>
+  <si>
+    <t>foreign5</t>
+  </si>
+  <si>
+    <t>foreign6</t>
+  </si>
+  <si>
+    <t>foreign7</t>
+  </si>
+  <si>
+    <t>foreign8</t>
+  </si>
+  <si>
+    <t>foreign9</t>
+  </si>
+  <si>
+    <t>foreign10</t>
+  </si>
+  <si>
+    <t>foreign11</t>
+  </si>
+  <si>
+    <t>foreign12</t>
+  </si>
+  <si>
+    <t>foreign13</t>
+  </si>
+  <si>
+    <t>foreign14</t>
+  </si>
+  <si>
+    <t>foreign15</t>
+  </si>
+  <si>
+    <t>foreign16</t>
+  </si>
+  <si>
+    <t>foreign17</t>
+  </si>
+  <si>
+    <t>foreign18</t>
+  </si>
+  <si>
+    <t>foreign19</t>
+  </si>
+  <si>
+    <t>foreign20</t>
+  </si>
+  <si>
+    <t>foreign21</t>
+  </si>
+  <si>
+    <t>foreign22</t>
+  </si>
+  <si>
+    <t>foreign23</t>
+  </si>
+  <si>
+    <t>foreign24</t>
+  </si>
+  <si>
+    <t>foreign25</t>
+  </si>
+  <si>
+    <t>foreign26</t>
+  </si>
+  <si>
+    <t>hicp</t>
+  </si>
+  <si>
+    <t>EUR Inflation 31122019</t>
+  </si>
+  <si>
+    <t>EUR Real Vol</t>
+  </si>
+  <si>
+    <t>EUR Inflation Vol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -174,8 +274,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,7 +560,7 @@
   <dimension ref="A1:AD8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,38 +661,222 @@
       <c r="A2" t="s">
         <v>29</v>
       </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>35</v>
       </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7537D0C7-6BBF-477B-B215-8B01F51D169F}">
+          <x14:formula1>
+            <xm:f>Sheet1!$B$1:$B$27</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3:AD3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F2FE0FE-1859-4585-9216-CD839E2480BE}">
+  <dimension ref="B1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Input/Runfiles/RiskDriverSimulation/InflationInput.xlsx
+++ b/Input/Runfiles/RiskDriverSimulation/InflationInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JQ228YH\Documents\CVA Tool Python\CVA-Tool\Input\Runfiles\RiskDriverSimulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB48F208-B7AF-4467-9D10-7DD4033EC5F4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97374EDA-8D79-4794-8C81-37AF98FA81C1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-6465" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,6 +31,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Vincent Verelst</author>
+  </authors>
+  <commentList>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{1E0E8590-6708-4C05-B206-727DBF3D939D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Vincent Verelst:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+so this is the index at 1th sept 19, automatically 3 month lag included</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
@@ -239,7 +273,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,6 +286,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -556,11 +603,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -686,7 +733,7 @@
         <v>30</v>
       </c>
       <c r="B5">
-        <v>105</v>
+        <v>105.02</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
@@ -715,6 +762,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">

--- a/Input/Runfiles/RiskDriverSimulation/InflationInput.xlsx
+++ b/Input/Runfiles/RiskDriverSimulation/InflationInput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JQ228YH\Documents\CVA Tool Python\CVA-Tool\Input\Runfiles\RiskDriverSimulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97374EDA-8D79-4794-8C81-37AF98FA81C1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4660DE4-CEEE-4128-B466-81D77B66F809}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-6465" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,42 +31,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Vincent Verelst</author>
-  </authors>
-  <commentList>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{1E0E8590-6708-4C05-B206-727DBF3D939D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Vincent Verelst:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-so this is the index at 1th sept 19, automatically 3 month lag included</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Inflation1</t>
   </si>
@@ -255,25 +221,13 @@
   </si>
   <si>
     <t>foreign26</t>
-  </si>
-  <si>
-    <t>hicp</t>
-  </si>
-  <si>
-    <t>EUR Inflation 31122019</t>
-  </si>
-  <si>
-    <t>EUR Real Vol</t>
-  </si>
-  <si>
-    <t>EUR Inflation Vol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,19 +240,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -603,11 +544,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -708,61 +649,40 @@
       <c r="A2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
-      <c r="B5">
-        <v>105.02</v>
-      </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
-      <c r="B6" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.03</v>
-      </c>
+      <c r="B8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
